--- a/Oil Pan/Oil Pan BOM.xlsx
+++ b/Oil Pan/Oil Pan BOM.xlsx
@@ -25,18 +25,13 @@
     <customWorkbookView name="Aaron Bonnell-Kangas - Personal View" guid="{041FEFD3-1D47-D149-9DF0-87D1C293F234}" mergeInterval="0" personalView="1" windowWidth="1225" windowHeight="684" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="470">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -1422,13 +1417,40 @@
   </si>
   <si>
     <t>MH14BCK</t>
+  </si>
+  <si>
+    <t>33C7384</t>
+  </si>
+  <si>
+    <t>33C7402</t>
+  </si>
+  <si>
+    <t>33C7332</t>
+  </si>
+  <si>
+    <t>33C7314</t>
+  </si>
+  <si>
+    <t>WH26-00-100</t>
+  </si>
+  <si>
+    <t>WH26-09-100</t>
+  </si>
+  <si>
+    <t>WH20-00-100</t>
+  </si>
+  <si>
+    <t>WH20-09-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,17 +1492,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,8 +1551,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1597,12 +1629,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +1702,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1691,8 +1717,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1897,10 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1958,8 +1983,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
+    <cellStyle name="Currency 2" xfId="16"/>
+    <cellStyle name="Currency 3" xfId="14"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1974,6 +2017,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="13"/>
+    <cellStyle name="Normal 2 2" xfId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1989,9 +2033,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3448,7 +3489,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3984,9 +4025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="91" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,15 +4042,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" t="s">
@@ -4267,7 +4308,7 @@
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="4"/>
       <c r="D14" s="44"/>
       <c r="E14" s="53"/>
@@ -4704,13 +4745,13 @@
       <c r="F37" t="s">
         <v>141</v>
       </c>
-      <c r="G37" s="101" t="s">
+      <c r="G37" s="99" t="s">
         <v>419</v>
       </c>
       <c r="H37" s="26">
         <v>4</v>
       </c>
-      <c r="I37" s="102">
+      <c r="I37" s="100">
         <v>0.14000000000000001</v>
       </c>
       <c r="J37" s="8"/>
@@ -5386,7 +5427,7 @@
       </c>
       <c r="I63" s="34"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>26</v>
       </c>
@@ -5394,8 +5435,8 @@
         <v>101</v>
       </c>
       <c r="D64" s="43"/>
-      <c r="E64" s="52"/>
-      <c r="F64" t="s">
+      <c r="E64" s="117"/>
+      <c r="F64" s="27" t="s">
         <v>160</v>
       </c>
       <c r="H64" s="29">
@@ -5403,45 +5444,54 @@
       </c>
       <c r="I64" s="34"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" t="s">
         <v>269</v>
       </c>
       <c r="D65" s="43"/>
-      <c r="E65" s="52"/>
-      <c r="F65" t="s">
+      <c r="E65" s="130" t="s">
+        <v>466</v>
+      </c>
+      <c r="F65" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="96"/>
+      <c r="G65" s="127" t="s">
+        <v>462</v>
+      </c>
       <c r="H65" s="25"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" t="s">
         <v>270</v>
       </c>
       <c r="D66" s="43"/>
-      <c r="E66" s="52"/>
-      <c r="F66" t="s">
+      <c r="E66" s="130" t="s">
+        <v>467</v>
+      </c>
+      <c r="F66" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G66" s="96"/>
+      <c r="G66" s="127" t="s">
+        <v>463</v>
+      </c>
       <c r="H66" s="25"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" t="s">
         <v>220</v>
       </c>
       <c r="D67" s="43"/>
-      <c r="E67" s="52"/>
-      <c r="F67" t="s">
+      <c r="E67" s="129"/>
+      <c r="F67" s="27" t="s">
         <v>221</v>
       </c>
+      <c r="G67" s="128"/>
       <c r="H67" s="25"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" t="s">
         <v>219</v>
@@ -5449,51 +5499,59 @@
       <c r="D68" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="52" t="s">
+      <c r="E68" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="128" t="s">
         <v>224</v>
       </c>
       <c r="H68" s="25"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" t="s">
         <v>229</v>
       </c>
       <c r="D69" s="43"/>
-      <c r="E69" s="52"/>
-      <c r="F69" t="s">
+      <c r="E69" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="F69" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G69" s="96"/>
+      <c r="G69" s="127" t="s">
+        <v>464</v>
+      </c>
       <c r="H69" s="25"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" t="s">
         <v>230</v>
       </c>
       <c r="D70" s="43"/>
-      <c r="E70" s="52"/>
-      <c r="F70" t="s">
+      <c r="E70" s="130" t="s">
+        <v>469</v>
+      </c>
+      <c r="F70" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="96"/>
+      <c r="G70" s="127" t="s">
+        <v>465</v>
+      </c>
       <c r="H70" s="25"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" t="s">
         <v>216</v>
       </c>
       <c r="D71" s="43"/>
-      <c r="E71" s="52"/>
-      <c r="F71" t="s">
+      <c r="E71" s="117"/>
+      <c r="F71" s="27" t="s">
         <v>113</v>
       </c>
       <c r="G71" t="s">
@@ -5506,15 +5564,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="27"/>
       <c r="B72" s="6"/>
       <c r="C72" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D72" s="43"/>
-      <c r="E72" s="52"/>
-      <c r="F72" t="s">
+      <c r="E72" s="117"/>
+      <c r="F72" s="27" t="s">
         <v>113</v>
       </c>
       <c r="G72" t="s">
@@ -5527,14 +5585,14 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="36" t="s">
         <v>218</v>
       </c>
       <c r="D73" s="43"/>
-      <c r="E73" s="52"/>
-      <c r="F73" t="s">
+      <c r="E73" s="117"/>
+      <c r="F73" s="27" t="s">
         <v>113</v>
       </c>
       <c r="G73" t="s">
@@ -5743,7 +5801,7 @@
       <c r="I82" s="75"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="113" t="s">
+      <c r="B83" s="111" t="s">
         <v>189</v>
       </c>
       <c r="C83" s="83" t="s">
@@ -5855,16 +5913,16 @@
       <c r="D87" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E87" s="99">
+      <c r="E87" s="97">
         <v>9508033</v>
       </c>
       <c r="F87" t="s">
         <v>141</v>
       </c>
-      <c r="G87" s="98" t="s">
+      <c r="G87" s="96" t="s">
         <v>458</v>
       </c>
-      <c r="H87" s="100">
+      <c r="H87" s="98">
         <v>2</v>
       </c>
       <c r="I87" s="33">
@@ -5900,7 +5958,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="112" t="s">
         <v>189</v>
       </c>
       <c r="C89" s="31" t="s">
@@ -5932,25 +5990,25 @@
       <c r="C90" t="s">
         <v>201</v>
       </c>
-      <c r="D90" s="106" t="s">
+      <c r="D90" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="E90" s="109" t="s">
+      <c r="E90" s="107" t="s">
         <v>461</v>
       </c>
-      <c r="F90" s="107" t="s">
+      <c r="F90" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G90" s="110" t="s">
+      <c r="G90" s="108" t="s">
         <v>460</v>
       </c>
-      <c r="H90" s="108">
+      <c r="H90" s="106">
         <v>2</v>
       </c>
-      <c r="I90" s="107">
+      <c r="I90" s="105">
         <v>0.92</v>
       </c>
-      <c r="J90" s="107"/>
+      <c r="J90" s="105"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
@@ -6025,7 +6083,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="115" t="s">
+      <c r="B94" s="113" t="s">
         <v>200</v>
       </c>
       <c r="C94" s="12" t="s">
@@ -6079,7 +6137,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
         <v>204</v>
       </c>
@@ -6108,7 +6166,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
         <v>204</v>
       </c>
@@ -6137,7 +6195,7 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>204</v>
       </c>
@@ -6166,9 +6224,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="50"/>
-      <c r="B99" s="116" t="s">
+      <c r="B99" s="114" t="s">
         <v>204</v>
       </c>
       <c r="C99" s="50" t="s">
@@ -6196,9 +6254,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="116" t="s">
+      <c r="B100" s="114" t="s">
         <v>204</v>
       </c>
       <c r="C100" s="50" t="s">
@@ -6220,9 +6278,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="50"/>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="114" t="s">
         <v>213</v>
       </c>
       <c r="C101" s="50" t="s">
@@ -6250,9 +6308,9 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="50"/>
-      <c r="B102" s="116" t="s">
+      <c r="B102" s="114" t="s">
         <v>213</v>
       </c>
       <c r="C102" s="50" t="s">
@@ -6280,9 +6338,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="50"/>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="114" t="s">
         <v>213</v>
       </c>
       <c r="C103" s="50" t="s">
@@ -6294,20 +6352,20 @@
       <c r="E103" s="52">
         <v>94743</v>
       </c>
-      <c r="F103" s="124" t="s">
+      <c r="F103" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="G103" s="124" t="s">
+      <c r="G103" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="H103" s="125">
+      <c r="H103" s="123">
         <v>1</v>
       </c>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="50"/>
-      <c r="B104" s="117" t="s">
+      <c r="B104" s="115" t="s">
         <v>235</v>
       </c>
       <c r="C104" s="91" t="s">
@@ -6322,20 +6380,20 @@
       <c r="F104" s="126" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="126" t="s">
+      <c r="G104" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="H104" s="126">
-        <v>1</v>
-      </c>
-      <c r="I104" s="126">
+      <c r="H104" s="124">
+        <v>1</v>
+      </c>
+      <c r="I104" s="124">
         <f>INDEX(Octopart_UnitPrice,MATCH(E104,Octopart_MPN,0))</f>
         <v>0.39</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="50"/>
-      <c r="B105" s="117" t="s">
+      <c r="B105" s="115" t="s">
         <v>236</v>
       </c>
       <c r="C105" s="91" t="s">
@@ -6355,7 +6413,7 @@
         <f>INDEX(Octopart_VPN,MATCH(E105,Octopart_MPN,0))</f>
         <v>27C7555</v>
       </c>
-      <c r="H105" s="120">
+      <c r="H105" s="118">
         <v>1</v>
       </c>
       <c r="I105" s="33">
@@ -6363,9 +6421,9 @@
         <v>0.251</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="50"/>
-      <c r="B106" s="116" t="s">
+      <c r="B106" s="114" t="s">
         <v>236</v>
       </c>
       <c r="C106" s="50" t="s">
@@ -6387,9 +6445,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="50"/>
-      <c r="B107" s="116" t="s">
+      <c r="B107" s="114" t="s">
         <v>237</v>
       </c>
       <c r="C107" s="50" t="s">
@@ -6402,9 +6460,9 @@
       <c r="H107" s="65"/>
       <c r="I107" s="33"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="50"/>
-      <c r="B108" s="116" t="s">
+      <c r="B108" s="114" t="s">
         <v>239</v>
       </c>
       <c r="C108" s="50" t="s">
@@ -6428,7 +6486,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="50"/>
-      <c r="B109" s="116" t="s">
+      <c r="B109" s="114" t="s">
         <v>239</v>
       </c>
       <c r="C109" s="50" t="s">
@@ -6458,25 +6516,25 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="50"/>
-      <c r="B110" s="116" t="s">
+      <c r="B110" s="114" t="s">
         <v>239</v>
       </c>
       <c r="C110" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D110" s="104" t="s">
+      <c r="D110" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E110" s="105">
+      <c r="E110" s="103">
         <v>430200401</v>
       </c>
       <c r="F110" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G110" s="101" t="s">
+      <c r="G110" s="99" t="s">
         <v>459</v>
       </c>
-      <c r="H110" s="103">
+      <c r="H110" s="101">
         <v>1</v>
       </c>
       <c r="I110" s="33">
@@ -6487,7 +6545,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="50"/>
-      <c r="B111" s="116" t="s">
+      <c r="B111" s="114" t="s">
         <v>239</v>
       </c>
       <c r="C111" s="50" t="s">
@@ -6515,9 +6573,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="50"/>
-      <c r="B112" s="116" t="s">
+      <c r="B112" s="114" t="s">
         <v>246</v>
       </c>
       <c r="C112" s="50" t="s">
@@ -6539,9 +6597,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="50"/>
-      <c r="B113" s="116" t="s">
+      <c r="B113" s="114" t="s">
         <v>248</v>
       </c>
       <c r="C113" s="50" t="s">
@@ -6563,9 +6621,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="50"/>
-      <c r="B114" s="117" t="s">
+      <c r="B114" s="115" t="s">
         <v>250</v>
       </c>
       <c r="C114" s="91" t="s">
@@ -6578,24 +6636,24 @@
       <c r="H114" s="92"/>
       <c r="I114" s="83"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="50"/>
-      <c r="B115" s="117" t="s">
+      <c r="B115" s="115" t="s">
         <v>251</v>
       </c>
       <c r="C115" s="91" t="s">
         <v>249</v>
       </c>
       <c r="D115" s="85"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="123"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="120"/>
+      <c r="H115" s="121"/>
       <c r="I115" s="83"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="50"/>
-      <c r="B116" s="117" t="s">
+      <c r="B116" s="115" t="s">
         <v>252</v>
       </c>
       <c r="C116" s="91" t="s">
@@ -6604,7 +6662,7 @@
       <c r="D116" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="119" t="s">
+      <c r="E116" s="117" t="s">
         <v>210</v>
       </c>
       <c r="F116" s="33" t="str">
@@ -6615,14 +6673,14 @@
         <f>INDEX(Octopart_VPN,MATCH(E116,Octopart_MPN,0))</f>
         <v>A27831CT-ND</v>
       </c>
-      <c r="H116" s="120">
+      <c r="H116" s="118">
         <v>1</v>
       </c>
       <c r="I116" s="83"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="50"/>
-      <c r="B117" s="116" t="s">
+      <c r="B117" s="114" t="s">
         <v>252</v>
       </c>
       <c r="C117" s="50" t="s">
@@ -6634,20 +6692,20 @@
       <c r="E117" s="52">
         <v>94743</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="G117" s="124" t="s">
+      <c r="G117" s="122" t="s">
         <v>212</v>
       </c>
-      <c r="H117" s="125">
+      <c r="H117" s="123">
         <v>1</v>
       </c>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="50"/>
-      <c r="B118" s="117" t="s">
+      <c r="B118" s="115" t="s">
         <v>253</v>
       </c>
       <c r="C118" s="91" t="s">
@@ -6667,7 +6725,7 @@
         <f>INDEX(Octopart_VPN,MATCH(E118,Octopart_MPN,0))</f>
         <v>25C3964</v>
       </c>
-      <c r="H118" s="120">
+      <c r="H118" s="118">
         <v>1</v>
       </c>
       <c r="I118" s="33">
@@ -6675,9 +6733,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="50"/>
-      <c r="B119" s="116" t="s">
+      <c r="B119" s="114" t="s">
         <v>253</v>
       </c>
       <c r="C119" s="50" t="s">
@@ -6699,9 +6757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="50"/>
-      <c r="B120" s="116" t="s">
+      <c r="B120" s="114" t="s">
         <v>253</v>
       </c>
       <c r="C120" s="50" t="s">
@@ -6729,9 +6787,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="50"/>
-      <c r="B121" s="116" t="s">
+      <c r="B121" s="114" t="s">
         <v>253</v>
       </c>
       <c r="C121" s="50" t="s">
@@ -6743,25 +6801,25 @@
       <c r="E121" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="F121" s="111" t="str">
+      <c r="F121" s="109" t="str">
         <f>INDEX(Octopart_Vendor,MATCH(E121,Octopart_MPN,0))</f>
         <v>Newark</v>
       </c>
-      <c r="G121" s="111" t="str">
+      <c r="G121" s="109" t="str">
         <f>INDEX(Octopart_VPN,MATCH(E121,Octopart_MPN,0))</f>
         <v>56H9412</v>
       </c>
-      <c r="H121" s="125">
+      <c r="H121" s="123">
         <v>2</v>
       </c>
-      <c r="I121" s="111">
+      <c r="I121" s="109">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="50"/>
-      <c r="B122" s="117" t="s">
+      <c r="B122" s="115" t="s">
         <v>258</v>
       </c>
       <c r="C122" s="91" t="s">
@@ -6781,7 +6839,7 @@
         <f>INDEX(Octopart_VPN,MATCH(E122,Octopart_MPN,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="H122" s="120">
+      <c r="H122" s="118">
         <v>2</v>
       </c>
       <c r="I122" s="33" t="e">
@@ -6789,9 +6847,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="50"/>
-      <c r="B123" s="116" t="s">
+      <c r="B123" s="114" t="s">
         <v>258</v>
       </c>
       <c r="C123" s="50" t="s">
@@ -6819,9 +6877,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="50"/>
-      <c r="B124" s="116" t="s">
+      <c r="B124" s="114" t="s">
         <v>258</v>
       </c>
       <c r="C124" s="50" t="s">
@@ -6839,9 +6897,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="50"/>
-      <c r="B125" s="118" t="s">
+      <c r="B125" s="116" t="s">
         <v>258</v>
       </c>
       <c r="C125" s="52" t="s">
@@ -6869,9 +6927,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="50"/>
-      <c r="B126" s="118" t="s">
+      <c r="B126" s="116" t="s">
         <v>258</v>
       </c>
       <c r="C126" s="52" t="s">
@@ -6899,7 +6957,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="50"/>
       <c r="B127" s="52"/>
       <c r="C127" s="52"/>
@@ -6909,7 +6967,7 @@
       <c r="G127" s="52"/>
       <c r="H127" s="65"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="50"/>
       <c r="B128" s="52"/>
       <c r="C128" s="52"/>
@@ -6919,7 +6977,7 @@
       <c r="G128" s="52"/>
       <c r="H128" s="65"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="50"/>
       <c r="B129" s="52"/>
       <c r="C129" s="52"/>
@@ -6929,7 +6987,7 @@
       <c r="G129" s="52"/>
       <c r="H129" s="65"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="50"/>
       <c r="B130" s="52"/>
       <c r="C130" s="52"/>
@@ -6939,7 +6997,7 @@
       <c r="G130" s="52"/>
       <c r="H130" s="65"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="50"/>
       <c r="B131" s="52"/>
       <c r="C131" s="52"/>
@@ -6949,7 +7007,7 @@
       <c r="G131" s="52"/>
       <c r="H131" s="65"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="50"/>
       <c r="B132" s="52"/>
       <c r="C132" s="52"/>
@@ -6959,7 +7017,7 @@
       <c r="G132" s="52"/>
       <c r="H132" s="65"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="50"/>
       <c r="B133" s="52"/>
       <c r="C133" s="52"/>
@@ -6969,7 +7027,7 @@
       <c r="G133" s="52"/>
       <c r="H133" s="65"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="50"/>
       <c r="B134" s="52"/>
       <c r="C134" s="52"/>
@@ -6979,7 +7037,7 @@
       <c r="G134" s="52"/>
       <c r="H134" s="65"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="50"/>
       <c r="B135" s="52"/>
       <c r="C135" s="52"/>
@@ -6989,7 +7047,7 @@
       <c r="G135" s="52"/>
       <c r="H135" s="65"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="50"/>
       <c r="B136" s="52"/>
       <c r="C136" s="52"/>
@@ -6999,7 +7057,7 @@
       <c r="G136" s="52"/>
       <c r="H136" s="65"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="50"/>
       <c r="B137" s="52"/>
       <c r="C137" s="52"/>
@@ -7009,7 +7067,7 @@
       <c r="G137" s="52"/>
       <c r="H137" s="65"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="50"/>
       <c r="B138" s="52"/>
       <c r="C138" s="52"/>
@@ -7019,7 +7077,7 @@
       <c r="G138" s="52"/>
       <c r="H138" s="65"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="50"/>
       <c r="B139" s="52"/>
       <c r="C139" s="52"/>
@@ -7129,7 +7187,7 @@
       <c r="G150" s="43"/>
       <c r="H150" s="65"/>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
       <c r="D151" s="43"/>
@@ -7138,7 +7196,7 @@
       <c r="G151" s="43"/>
       <c r="H151" s="65"/>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="43"/>
